--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions.xlsx
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>QD_[15, 25, 50, 75]</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">

--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_different_conditions.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.34157573002024605</t>
+          <t>0.31840620587240887</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>141</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.17625778186008362</t>
+          <t>0.26961875092056947</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>187</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>165</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.23908754832956958</t>
+          <t>0.2885853397750796</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -691,22 +691,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.2727838380180638</t>
+          <t>0.2942615321841644</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.1485060554331313</t>
+          <t>0.17084004468214162</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>136</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -801,22 +801,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.11504938068020833</t>
+          <t>0.1675228255811358</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>125</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.10353953091022057</t>
+          <t>0.0913959629653253</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.1857568441870841</t>
+          <t>0.22495746337151493</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -966,22 +966,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.27831705813471136</t>
+          <t>0.24619096443650007</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1021,22 +1021,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.23581847993987146</t>
+          <t>0.3022252433378938</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.3969770179873118</t>
+          <t>0.367390652936996</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>167</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.21590499489809464</t>
+          <t>0.25385156070903</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.11091146248534507</t>
+          <t>0.06039103750674951</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -1241,22 +1241,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.4815507781821481</t>
+          <t>0.497014394483249</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.0625263157894737</t>
+          <t>0.04839506172839507</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1351,22 +1351,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.45663322231542314</t>
+          <t>0.43766553258034907</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.014040536122915986</t>
+          <t>0.009903978052126198</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.2363244546229553</t>
+          <t>0.2643854238100598</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.013624971519708361</t>
+          <t>0.009308250048990791</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1571,22 +1571,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.28029519553092286</t>
+          <t>0.307487726041835</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -1626,22 +1626,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.08445984526533729</t>
+          <t>0.060379675702251744</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -1681,22 +1681,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.38758334326651644</t>
+          <t>0.39655012852519783</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.08429374718848401</t>
+          <t>0.08350176097548</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.38097529213883985</t>
+          <t>0.36972899231038325</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.4766050518121003</t>
+          <t>0.5142510800147948</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>336</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -1901,22 +1901,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.3098597160419416</t>
+          <t>0.33518416570210374</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.49908229775795454</t>
+          <t>0.5290481756233161</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>342</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.3597013473795391</t>
+          <t>0.41790970419439427</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>260</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.471649276672972</t>
+          <t>0.4859218317984593</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.45784940066615654</t>
+          <t>0.4973890869549711</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -2176,22 +2176,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.5920749801901308</t>
+          <t>0.5598734751556211</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>331</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.4277278744484135</t>
+          <t>0.47500235860498286</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>205</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.43399758942148264</t>
+          <t>0.4776041547397013</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -2341,22 +2341,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.43704328055650843</t>
+          <t>0.437207524700453</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>290</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>240</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.44741010901429445</t>
+          <t>0.4829514388993477</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>304</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -2451,22 +2451,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.454212225081612</t>
+          <t>0.47259704252038376</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>224</t>
         </is>
       </c>
     </row>
@@ -2506,22 +2506,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5591687473754935</t>
+          <t>0.553842488399496</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.4882973734583151</t>
+          <t>0.5186276526169321</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.6292424876847184</t>
+          <t>0.6180833384892483</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.509579808500866</t>
+          <t>0.5447297042111068</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>335</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.14385330943366073</t>
+          <t>0.14409870373305675</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.18974817198974753</t>
+          <t>0.2822880509371374</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>282</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.2890930653665292</t>
+          <t>0.3006727878337862</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -2891,22 +2891,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.16843714756587935</t>
+          <t>0.2728967706510301</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -2946,22 +2946,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.19227316148659906</t>
+          <t>0.2204150075484423</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3001,22 +3001,22 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.2821463994753355</t>
+          <t>0.35046957401223167</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>224</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.3648173219054775</t>
+          <t>0.4194212296426288</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.254467190663623</t>
+          <t>0.3276242307693266</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>215</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -3166,22 +3166,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.14145984120636285</t>
+          <t>0.17063980093378187</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -3221,22 +3221,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.2520698575516954</t>
+          <t>0.3195525304338324</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>203</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>152</t>
         </is>
       </c>
     </row>
@@ -3276,22 +3276,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.2839733881070283</t>
+          <t>0.34954580190114043</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>254</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.24336109383048174</t>
+          <t>0.32541555107813425</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>202</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.3922415607763614</t>
+          <t>0.36319322225684636</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -3441,22 +3441,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.32825187008061263</t>
+          <t>0.3903548281403342</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>252</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -3496,22 +3496,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.4168031972224521</t>
+          <t>0.4532374631414352</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3551,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.3965422634431237</t>
+          <t>0.43455546437465475</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -3606,22 +3606,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.4074993050737261</t>
+          <t>0.4129725643875954</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>123</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.4093450616873594</t>
+          <t>0.45806339900945986</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3716,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.4979508127788305</t>
+          <t>0.4902995887015177</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -3771,22 +3771,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.3818119789584914</t>
+          <t>0.4585728331522713</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>279</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -3826,22 +3826,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.5484290637086788</t>
+          <t>0.5476526795301149</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>345</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -3881,22 +3881,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.4165691935390887</t>
+          <t>0.47419787769388594</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.5950705055069214</t>
+          <t>0.5974499242828166</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>364</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -3991,22 +3991,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.45743047499193323</t>
+          <t>0.5184662581317773</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.48443429477579814</t>
+          <t>0.4671047865813182</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.4321188955034861</t>
+          <t>0.49935254408719015</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>186</t>
         </is>
       </c>
     </row>
@@ -4156,22 +4156,22 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.5262519337094361</t>
+          <t>0.536547522554579</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>338</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.41853824387037664</t>
+          <t>0.4503948742920028</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>275</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -4266,22 +4266,22 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.4929204405032898</t>
+          <t>0.5179390283740009</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>312</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4321,22 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.4574924351287986</t>
+          <t>0.5490319427442625</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>330</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>240</t>
         </is>
       </c>
     </row>
@@ -4376,22 +4376,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.5721130977589779</t>
+          <t>0.5730617588031998</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>564</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>342</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>110</t>
         </is>
       </c>
     </row>
@@ -4431,22 +4431,22 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.4625039584949472</t>
+          <t>0.49450731615991966</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>515</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.32453403745708553</t>
+          <t>0.29600085555981187</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -4541,22 +4541,22 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.5390750043880926</t>
+          <t>0.5900936410331834</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>429</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>236</t>
         </is>
       </c>
     </row>
@@ -4596,22 +4596,22 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.3568378819430354</t>
+          <t>0.30821550943609843</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>363</t>
         </is>
       </c>
     </row>
@@ -4651,22 +4651,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.5842769789151616</t>
+          <t>0.5762705060676547</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>408</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>188</t>
         </is>
       </c>
     </row>
@@ -4706,22 +4706,22 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.43915851533681466</t>
+          <t>0.43866464231430236</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>252</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>240</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.6144250269235412</t>
+          <t>0.6034743838523698</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -4816,22 +4816,22 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.45406016582355785</t>
+          <t>0.42273896775460845</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>204</t>
         </is>
       </c>
     </row>
@@ -4871,22 +4871,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.6131557670302743</t>
+          <t>0.6486698768834323</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -4926,22 +4926,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.34634283015125544</t>
+          <t>0.33205914672105585</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>358</t>
         </is>
       </c>
     </row>
@@ -4981,22 +4981,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5437868402194775</t>
+          <t>0.6151692974176841</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.4185311134710772</t>
+          <t>0.4128800515586802</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>264</t>
         </is>
       </c>
     </row>
@@ -5091,22 +5091,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.5558764860499146</t>
+          <t>0.5914737441789154</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>419</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -5146,22 +5146,22 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.4681347935612864</t>
+          <t>0.45935146326329446</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -5201,22 +5201,22 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.6768951157121025</t>
+          <t>0.6612853229788744</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -5256,22 +5256,22 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.5872116082031936</t>
+          <t>0.5951685160868716</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.6824186728144234</t>
+          <t>0.7068608779309246</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>483</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -5366,22 +5366,22 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.09698393862640688</t>
+          <t>0.1126251818813458</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -5421,22 +5421,22 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.33123465239199473</t>
+          <t>0.37189575277957737</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -5476,22 +5476,22 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.15566892706959293</t>
+          <t>0.2130589653668498</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -5531,22 +5531,22 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.3737379996656912</t>
+          <t>0.4187049137432973</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>220</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.2522173186159986</t>
+          <t>0.29042392559893</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>177</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -5641,22 +5641,22 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.44419215024703923</t>
+          <t>0.482189653983385</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>356</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -5696,22 +5696,22 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.29723599945545126</t>
+          <t>0.3325982616862756</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>199</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -5751,22 +5751,22 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.5004780541520619</t>
+          <t>0.522946782224373</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>202</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.14353927371620545</t>
+          <t>0.19902891149557167</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.42282161881542063</t>
+          <t>0.4686219779429345</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>350</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>230</t>
         </is>
       </c>
     </row>
@@ -5916,22 +5916,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.23429010239046966</t>
+          <t>0.30669729147763564</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>194</t>
         </is>
       </c>
     </row>
@@ -5971,22 +5971,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.4506891521297867</t>
+          <t>0.47496087330509107</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>263</t>
         </is>
       </c>
     </row>
@@ -6026,22 +6026,22 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.32568974186777383</t>
+          <t>0.36386035929613675</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>203</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -6081,22 +6081,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.48858186655296254</t>
+          <t>0.5372007850759478</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>386</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>228</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.33418771971910854</t>
+          <t>0.3943618784193913</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>235</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>197</t>
         </is>
       </c>
     </row>
@@ -6191,22 +6191,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.5570614276131076</t>
+          <t>0.5696228884507503</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -6246,22 +6246,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.3790012338930626</t>
+          <t>0.3423549509412277</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>288</t>
         </is>
       </c>
     </row>
@@ -6301,22 +6301,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.5689840825536003</t>
+          <t>0.5603556239558956</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>396</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>164</t>
         </is>
       </c>
     </row>
@@ -6356,22 +6356,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.35539652927292625</t>
+          <t>0.3762395149375909</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>240</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.618407230431537</t>
+          <t>0.6141668991420188</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>429</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -6466,22 +6466,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>0.40890156164973035</t>
+          <t>0.42806130861573616</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -6521,22 +6521,22 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.6628197321685277</t>
+          <t>0.6812825736562933</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>471</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -6576,22 +6576,22 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.4911625795503373</t>
+          <t>0.49490077916469155</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>256</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -6631,22 +6631,22 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.6604356397484837</t>
+          <t>0.6673048378654927</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>456</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.4190491592341312</t>
+          <t>0.4209224849107681</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>236</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>214</t>
         </is>
       </c>
     </row>
@@ -6741,22 +6741,22 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.5474451134872143</t>
+          <t>0.5557268880360082</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -6796,22 +6796,22 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.4547079459649622</t>
+          <t>0.4872390079446825</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -6851,22 +6851,22 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6253436645052726</t>
+          <t>0.6484320059060263</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>461</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -6906,22 +6906,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.4770754637542486</t>
+          <t>0.528036755546092</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.6603771841987383</t>
+          <t>0.6868718303763762</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -7016,22 +7016,22 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.497645751555641</t>
+          <t>0.5754630286438689</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>405</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>277</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -7071,22 +7071,22 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.6926033147338355</t>
+          <t>0.7074001159523784</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>646</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>481</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>124</t>
         </is>
       </c>
     </row>
